--- a/ALLdocumentFolder/TodoListMESConfigTool (12).xlsx
+++ b/ALLdocumentFolder/TodoListMESConfigTool (12).xlsx
@@ -2933,23 +2933,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D8FEFED-33BB-4FFD-B88C-CA336328B7F7}" diskRevisions="1" revisionId="660" version="2">
-  <header guid="{C9297C83-2B6D-4BE0-9815-E1564585E58D}" dateTime="2018-05-16T08:00:26" maxSheetId="14" userName="Koen Wartenberg" r:id="rId26" minRId="571" maxRId="579">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
   <header guid="{B109DC0B-01E9-48A1-B708-36D2DCC7D89E}" dateTime="2018-05-22T12:16:25" maxSheetId="14" userName="Koen Wartenberg" r:id="rId27" minRId="604" maxRId="611">
     <sheetIdMap count="13">
       <sheetId val="1"/>
@@ -3002,217 +2985,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="571" sId="2">
-    <oc r="J4" t="inlineStr">
-      <is>
-        <t>Wait for Life</t>
-      </is>
-    </oc>
-    <nc r="J4" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="572" sId="2">
-    <oc r="J9" t="inlineStr">
-      <is>
-        <t>Wait for Life</t>
-      </is>
-    </oc>
-    <nc r="J9" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="573" sId="2">
-    <oc r="J11" t="inlineStr">
-      <is>
-        <t>Wait for Life</t>
-      </is>
-    </oc>
-    <nc r="J11" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="574" sId="2">
-    <oc r="J14" t="inlineStr">
-      <is>
-        <t>To do</t>
-      </is>
-    </oc>
-    <nc r="J14" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="575" sId="2">
-    <oc r="J15" t="inlineStr">
-      <is>
-        <t>Wait for Life</t>
-      </is>
-    </oc>
-    <nc r="J15" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="576" sId="2">
-    <oc r="J19" t="inlineStr">
-      <is>
-        <t>Wait</t>
-      </is>
-    </oc>
-    <nc r="J19" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="577" sId="2">
-    <oc r="J21" t="inlineStr">
-      <is>
-        <t>To do</t>
-      </is>
-    </oc>
-    <nc r="J21" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="578" sId="2">
-    <oc r="J22" t="inlineStr">
-      <is>
-        <t>To do</t>
-      </is>
-    </oc>
-    <nc r="J22" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="579" sId="2">
-    <oc r="J26" t="inlineStr">
-      <is>
-        <t>To do</t>
-      </is>
-    </oc>
-    <nc r="J26" t="inlineStr">
-      <is>
-        <t>Done</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{08F90827-5012-4E74-97DC-D2C0C91EAAEF}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>Totaal!$A$1:$K$48</formula>
-    <oldFormula>Totaal!$A$1:$K$48</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Totaal!$3:$3</formula>
-    <oldFormula>Totaal!$3:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Totaal!$A$3:$L$55</formula>
-    <oldFormula>Totaal!$A$3:$L$55</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>PE!$A$1:$H$33</formula>
-    <oldFormula>PE!$A$1:$H$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>PE!$A$3:$H$49</formula>
-    <oldFormula>PE!$A$3:$H$49</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>IO!$A$1:$H$33</formula>
-    <oldFormula>IO!$A$1:$H$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>IO!$A$3:$IR$33</formula>
-    <oldFormula>IO!$A$3:$IR$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>OA2Control!$A$1:$K$43</formula>
-    <oldFormula>OA2Control!$A$1:$K$43</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>OA2Control!$A$3:$L$43</formula>
-    <oldFormula>OA2Control!$A$3:$L$43</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>OA2View!$A$1:$H$33</formula>
-    <oldFormula>OA2View!$A$1:$H$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>OA2View!$1:$3</formula>
-    <oldFormula>OA2View!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>OA2View!$A$3:$G$33</formula>
-    <oldFormula>OA2View!$A$3:$G$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>OA2Produce!$1:$3</formula>
-    <oldFormula>OA2Produce!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>OA2Produce!$A$3:$G$33</formula>
-    <oldFormula>OA2Produce!$A$3:$G$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Transportprogramma!$1:$3</formula>
-    <oldFormula>Transportprogramma!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Transportprogramma!$A$3:$G$33</formula>
-    <oldFormula>Transportprogramma!$A$3:$G$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>VB!$1:$3</formula>
-    <oldFormula>VB!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>VB!$A$3:$H$33</formula>
-    <oldFormula>VB!$A$3:$H$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Communicatie!$1:$3</formula>
-    <oldFormula>Communicatie!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Communicatie!$A$3:$H$65</formula>
-    <oldFormula>Communicatie!$A$3:$H$65</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintArea" hidden="1" oldHidden="1">
-    <formula>IBS!$A$1:$H$39</formula>
-    <oldFormula>IBS!$A$1:$H$39</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>IBS!$A$3:$I$33</formula>
-    <oldFormula>IBS!$A$3:$I$33</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="12" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Overige!$1:$3</formula>
-    <oldFormula>Overige!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="12" customView="1" name="Z_08F90827_5012_4E74_97DC_D2C0C91EAAEF_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Overige!$A$3:$G$33</formula>
-    <oldFormula>Overige!$A$3:$G$33</oldFormula>
-  </rdn>
-  <rcv guid="{08F90827-5012-4E74-97DC-D2C0C91EAAEF}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
